--- a/data/gq.xlsx
+++ b/data/gq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hana/psrc/R/shinyserver/remi-explorer/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A8704C-E97A-634C-B65E-E4D19D1C721F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18184FF-1FD8-FB4D-BEE5-06B90D9C1F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{AB35624E-D3BA-2045-BBC7-77061FCD4155}"/>
+    <workbookView xWindow="7980" yWindow="2840" windowWidth="27640" windowHeight="16940" xr2:uid="{AB35624E-D3BA-2045-BBC7-77061FCD4155}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>County</t>
   </si>
@@ -53,16 +53,22 @@
     <t>Snohomish</t>
   </si>
   <si>
-    <t>2020Population</t>
-  </si>
-  <si>
     <t>2020GQpop</t>
   </si>
   <si>
-    <t>2020Households</t>
-  </si>
-  <si>
-    <t>Source: Commerce HAPT</t>
+    <t>2024GQpop</t>
+  </si>
+  <si>
+    <t>2020Pop</t>
+  </si>
+  <si>
+    <t>2020HH</t>
+  </si>
+  <si>
+    <t>2024Pop</t>
+  </si>
+  <si>
+    <t>Source: Commerce HAPT, OFM (SAEP)</t>
   </si>
 </sst>
 </file>
@@ -73,7 +79,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,6 +117,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -138,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -225,6 +236,21 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC1C1C1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC1C1C1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC1C1C1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -233,7 +259,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -262,6 +288,13 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -599,11 +632,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A9A480-B1C8-F94A-8BA9-9ABD5ADD9233}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -612,26 +643,32 @@
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -644,8 +681,14 @@
       <c r="D3" s="8">
         <v>917764</v>
       </c>
+      <c r="E3" s="10">
+        <v>2378100</v>
+      </c>
+      <c r="F3" s="10">
+        <v>41000</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -658,8 +701,14 @@
       <c r="D4" s="8">
         <v>105803</v>
       </c>
+      <c r="E4" s="10">
+        <v>286100</v>
+      </c>
+      <c r="F4" s="10">
+        <v>8369</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -672,8 +721,14 @@
       <c r="D5" s="8">
         <v>339840</v>
       </c>
+      <c r="E5" s="10">
+        <v>952600</v>
+      </c>
+      <c r="F5" s="10">
+        <v>20680.001</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -685,6 +740,12 @@
       </c>
       <c r="D6" s="8">
         <v>306828</v>
+      </c>
+      <c r="E6" s="10">
+        <v>867100</v>
+      </c>
+      <c r="F6" s="10">
+        <v>8229</v>
       </c>
     </row>
   </sheetData>

--- a/data/gq.xlsx
+++ b/data/gq.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hana/psrc/R/shinyserver/remi-explorer/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18184FF-1FD8-FB4D-BEE5-06B90D9C1F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A12A6A9-8224-DA45-9ED4-629F0436B936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7980" yWindow="2840" windowWidth="27640" windowHeight="16940" xr2:uid="{AB35624E-D3BA-2045-BBC7-77061FCD4155}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -289,7 +289,7 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -634,7 +634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A9A480-B1C8-F94A-8BA9-9ABD5ADD9233}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
